--- a/Code/Results/Cases/Case_1_86/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_86/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.63093132702731</v>
+        <v>8.56542157841475</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>17.83838366850934</v>
+        <v>8.990910777557627</v>
       </c>
       <c r="E2">
-        <v>27.28411805775575</v>
+        <v>14.90835905290406</v>
       </c>
       <c r="F2">
-        <v>103.923084532505</v>
+        <v>51.60254544065107</v>
       </c>
       <c r="G2">
-        <v>1.649930670002255</v>
+        <v>3.594859047301906</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.68008304161803</v>
+        <v>19.56988205597989</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>61.17334763532082</v>
+        <v>31.99538715734932</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.8685480640603</v>
+        <v>8.231670994341819</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15.44146247645093</v>
+        <v>8.712696350048354</v>
       </c>
       <c r="E3">
-        <v>24.83103373603367</v>
+        <v>14.08648243838648</v>
       </c>
       <c r="F3">
-        <v>90.68146599931387</v>
+        <v>49.50204601729268</v>
       </c>
       <c r="G3">
-        <v>1.739787322594405</v>
+        <v>3.607827519654669</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.03134823444887</v>
+        <v>19.41091534122405</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>54.87332418879204</v>
+        <v>30.44997188032105</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.37777325722889</v>
+        <v>8.019168844761055</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.18290313561696</v>
+        <v>8.545499728442572</v>
       </c>
       <c r="E4">
-        <v>23.44649693621911</v>
+        <v>13.55594164246932</v>
       </c>
       <c r="F4">
-        <v>83.66747348991585</v>
+        <v>48.20784397318952</v>
       </c>
       <c r="G4">
-        <v>1.785093300152998</v>
+        <v>3.616113791610688</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.63011095774471</v>
+        <v>19.32002503466039</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>51.34984347207842</v>
+        <v>29.46983455025978</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.17200392844085</v>
+        <v>7.930764315880739</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.6965037850614</v>
+        <v>8.478378044973393</v>
       </c>
       <c r="E5">
-        <v>22.89222942545114</v>
+        <v>13.33334095594995</v>
       </c>
       <c r="F5">
-        <v>80.9476236626297</v>
+        <v>47.68020151474055</v>
       </c>
       <c r="G5">
-        <v>1.802252427650723</v>
+        <v>3.619572984196569</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.46803439257299</v>
+        <v>19.2847232762369</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>49.94777196459496</v>
+        <v>29.06305886772537</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.13748460394394</v>
+        <v>7.915978690211833</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>13.61689542517233</v>
+        <v>8.46729660369035</v>
       </c>
       <c r="E6">
-        <v>22.80047032422413</v>
+        <v>13.29599551921294</v>
       </c>
       <c r="F6">
-        <v>80.50204192953416</v>
+        <v>47.59259939249599</v>
       </c>
       <c r="G6">
-        <v>1.805042114126627</v>
+        <v>3.620152393142308</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.44123834538951</v>
+        <v>19.27896769174965</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>49.71613569996102</v>
+        <v>28.9950854851875</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.37502168555523</v>
+        <v>8.017983773905787</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.17625755286634</v>
+        <v>8.544590270910465</v>
       </c>
       <c r="E7">
-        <v>23.43899738742572</v>
+        <v>13.55296531998253</v>
       </c>
       <c r="F7">
-        <v>83.63034424529771</v>
+        <v>48.20072776995811</v>
       </c>
       <c r="G7">
-        <v>1.785329064300187</v>
+        <v>3.616160108135272</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.62791785601069</v>
+        <v>19.3195418492189</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>51.33083968004585</v>
+        <v>29.46437772572614</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.3727523242519</v>
+        <v>8.451971825018497</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>16.94145603325891</v>
+        <v>8.894289112148462</v>
       </c>
       <c r="E8">
-        <v>26.39264419462182</v>
+        <v>14.63041239056321</v>
       </c>
       <c r="F8">
-        <v>98.98809095495726</v>
+        <v>50.87973058789609</v>
       </c>
       <c r="G8">
-        <v>1.684099423663634</v>
+        <v>3.599264092986509</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.45929338635855</v>
+        <v>19.51370608116482</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>58.87847541603956</v>
+        <v>31.46928617786296</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.3727523242519</v>
+        <v>9.239219066721178</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.94145603325891</v>
+        <v>9.60454587072288</v>
       </c>
       <c r="E9">
-        <v>26.39264419462182</v>
+        <v>16.53402456961178</v>
       </c>
       <c r="F9">
-        <v>98.98809095495726</v>
+        <v>56.06298538161366</v>
       </c>
       <c r="G9">
-        <v>1.684099423663634</v>
+        <v>3.568646813689276</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.45929338635855</v>
+        <v>19.94551427612702</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>58.87847541603956</v>
+        <v>35.13506105074688</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.3727523242519</v>
+        <v>9.774561620633685</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>16.94145603325891</v>
+        <v>10.13588264717194</v>
       </c>
       <c r="E10">
-        <v>26.39264419462182</v>
+        <v>17.80151965644528</v>
       </c>
       <c r="F10">
-        <v>98.98809095495726</v>
+        <v>59.78810571157285</v>
       </c>
       <c r="G10">
-        <v>1.684099423663634</v>
+        <v>3.547611283709456</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.45929338635855</v>
+        <v>20.29074606183129</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>58.87847541603956</v>
+        <v>37.64702557419468</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.3727523242519</v>
+        <v>10.00807268459332</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>16.94145603325891</v>
+        <v>10.3786470747132</v>
       </c>
       <c r="E11">
-        <v>26.39264419462182</v>
+        <v>18.34925996050229</v>
       </c>
       <c r="F11">
-        <v>98.98809095495726</v>
+        <v>61.45801635186479</v>
       </c>
       <c r="G11">
-        <v>1.684099423663634</v>
+        <v>3.538341409436062</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.45929338635855</v>
+        <v>20.45317780383579</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>58.87847541603956</v>
+        <v>38.74754358735873</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.3727523242519</v>
+        <v>10.09501062114514</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>16.94145603325891</v>
+        <v>10.47065325504649</v>
       </c>
       <c r="E12">
-        <v>26.39264419462182</v>
+        <v>18.55250779540976</v>
       </c>
       <c r="F12">
-        <v>98.98809095495726</v>
+        <v>62.08637487379768</v>
       </c>
       <c r="G12">
-        <v>1.684099423663634</v>
+        <v>3.534872733183012</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.45929338635855</v>
+        <v>20.51540089589366</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>58.87847541603956</v>
+        <v>39.15803908702252</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.3727523242519</v>
+        <v>10.07635381368357</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>16.94145603325891</v>
+        <v>10.45083577663729</v>
       </c>
       <c r="E13">
-        <v>26.39264419462182</v>
+        <v>18.50892040269792</v>
       </c>
       <c r="F13">
-        <v>98.98809095495726</v>
+        <v>61.9512309020617</v>
       </c>
       <c r="G13">
-        <v>1.684099423663634</v>
+        <v>3.535617946664907</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.45929338635855</v>
+        <v>20.50196926222806</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>58.87847541603956</v>
+        <v>39.06991178903825</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.3727523242519</v>
+        <v>10.01525517817938</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>16.94145603325891</v>
+        <v>10.38621534376479</v>
       </c>
       <c r="E14">
-        <v>26.39264419462182</v>
+        <v>18.36606492907858</v>
       </c>
       <c r="F14">
-        <v>98.98809095495726</v>
+        <v>61.50979426892562</v>
       </c>
       <c r="G14">
-        <v>1.684099423663634</v>
+        <v>3.538055213481683</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.45929338635855</v>
+        <v>20.4582829783631</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>58.87847541603956</v>
+        <v>38.78144137721137</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.3727523242519</v>
+        <v>9.977635498377078</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>16.94145603325891</v>
+        <v>10.34664134993582</v>
       </c>
       <c r="E15">
-        <v>26.39264419462182</v>
+        <v>18.2780183861476</v>
       </c>
       <c r="F15">
-        <v>98.98809095495726</v>
+        <v>61.23886854237749</v>
       </c>
       <c r="G15">
-        <v>1.684099423663634</v>
+        <v>3.539553487360361</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.45929338635855</v>
+        <v>20.43161501578272</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>58.87847541603956</v>
+        <v>38.60392677523855</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.3727523242519</v>
+        <v>9.759095335508853</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>16.94145603325891</v>
+        <v>10.12003203502377</v>
       </c>
       <c r="E16">
-        <v>26.39264419462182</v>
+        <v>17.76514097356455</v>
       </c>
       <c r="F16">
-        <v>98.98809095495726</v>
+        <v>59.67843615606998</v>
       </c>
       <c r="G16">
-        <v>1.684099423663634</v>
+        <v>3.548222994943675</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.45929338635855</v>
+        <v>20.2802339407032</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>58.87847541603956</v>
+        <v>37.57423882388836</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.3727523242519</v>
+        <v>9.622426153955955</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>16.94145603325891</v>
+        <v>9.981228741174597</v>
       </c>
       <c r="E17">
-        <v>26.39264419462182</v>
+        <v>17.44309984048179</v>
       </c>
       <c r="F17">
-        <v>98.98809095495726</v>
+        <v>58.71449525269211</v>
       </c>
       <c r="G17">
-        <v>1.684099423663634</v>
+        <v>3.553617127467457</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.45929338635855</v>
+        <v>20.18870259652981</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>58.87847541603956</v>
+        <v>36.93161133884835</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.3727523242519</v>
+        <v>9.542876925554006</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>16.94145603325891</v>
+        <v>9.901496181491293</v>
       </c>
       <c r="E18">
-        <v>26.39264419462182</v>
+        <v>17.25515535281115</v>
       </c>
       <c r="F18">
-        <v>98.98809095495726</v>
+        <v>58.15776210779484</v>
       </c>
       <c r="G18">
-        <v>1.684099423663634</v>
+        <v>3.556747949167377</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.45929338635855</v>
+        <v>20.1365666165146</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>58.87847541603956</v>
+        <v>36.55802599161265</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.3727523242519</v>
+        <v>9.51578290480612</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>16.94145603325891</v>
+        <v>9.874520313005402</v>
       </c>
       <c r="E19">
-        <v>26.39264419462182</v>
+        <v>17.19105510021024</v>
       </c>
       <c r="F19">
-        <v>98.98809095495726</v>
+        <v>57.96888199614146</v>
       </c>
       <c r="G19">
-        <v>1.684099423663634</v>
+        <v>3.557812887204441</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.45929338635855</v>
+        <v>20.11900377472351</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>58.87847541603956</v>
+        <v>36.43086196293254</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.3727523242519</v>
+        <v>9.63707254700514</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>16.94145603325891</v>
+        <v>9.995994459455716</v>
       </c>
       <c r="E20">
-        <v>26.39264419462182</v>
+        <v>17.47766284106619</v>
       </c>
       <c r="F20">
-        <v>98.98809095495726</v>
+        <v>58.81734997619853</v>
       </c>
       <c r="G20">
-        <v>1.684099423663634</v>
+        <v>3.553039998155403</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.45929338635855</v>
+        <v>20.19839387449855</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>58.87847541603956</v>
+        <v>37.00043173027706</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.3727523242519</v>
+        <v>10.0332420401924</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>16.94145603325891</v>
+        <v>10.40519440938503</v>
       </c>
       <c r="E21">
-        <v>26.39264419462182</v>
+        <v>18.4081383201159</v>
       </c>
       <c r="F21">
-        <v>98.98809095495726</v>
+        <v>61.63956669046914</v>
       </c>
       <c r="G21">
-        <v>1.684099423663634</v>
+        <v>3.537338211072317</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.45929338635855</v>
+        <v>20.47109581198205</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>58.87847541603956</v>
+        <v>38.86634289399611</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.3727523242519</v>
+        <v>10.28347385383194</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>16.94145603325891</v>
+        <v>10.67304802433073</v>
       </c>
       <c r="E22">
-        <v>26.39264419462182</v>
+        <v>18.99195191723519</v>
       </c>
       <c r="F22">
-        <v>98.98809095495726</v>
+        <v>63.46057716023856</v>
       </c>
       <c r="G22">
-        <v>1.684099423663634</v>
+        <v>3.527318097349653</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.45929338635855</v>
+        <v>20.65345427360353</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>58.87847541603956</v>
+        <v>40.04935770363562</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.3727523242519</v>
+        <v>10.15072901362731</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>16.94145603325891</v>
+        <v>10.53007382104146</v>
       </c>
       <c r="E23">
-        <v>26.39264419462182</v>
+        <v>18.68258791871575</v>
       </c>
       <c r="F23">
-        <v>98.98809095495726</v>
+        <v>62.49094627580971</v>
       </c>
       <c r="G23">
-        <v>1.684099423663634</v>
+        <v>3.532644370319007</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.45929338635855</v>
+        <v>20.55576807109233</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>58.87847541603956</v>
+        <v>39.42134598372012</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.3727523242519</v>
+        <v>9.630453950012456</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>16.94145603325891</v>
+        <v>9.989318662757716</v>
       </c>
       <c r="E24">
-        <v>26.39264419462182</v>
+        <v>17.46204562428041</v>
       </c>
       <c r="F24">
-        <v>98.98809095495726</v>
+        <v>58.77085726516879</v>
       </c>
       <c r="G24">
-        <v>1.684099423663634</v>
+        <v>3.553300825817718</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.45929338635855</v>
+        <v>20.19401092746413</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>58.87847541603956</v>
+        <v>36.96933088197451</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.3727523242519</v>
+        <v>9.033546210045728</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.94145603325891</v>
+        <v>9.410361043430532</v>
       </c>
       <c r="E25">
-        <v>26.39264419462182</v>
+        <v>16.04188088321959</v>
       </c>
       <c r="F25">
-        <v>98.98809095495726</v>
+        <v>54.67278578349791</v>
       </c>
       <c r="G25">
-        <v>1.684099423663634</v>
+        <v>3.576667811113561</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.45929338635855</v>
+        <v>19.82355067188487</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>58.87847541603956</v>
+        <v>34.17405426644781</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_86/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_86/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.56542157841475</v>
+        <v>11.63093132702731</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.990910777557627</v>
+        <v>17.83838366850968</v>
       </c>
       <c r="E2">
-        <v>14.90835905290406</v>
+        <v>27.28411805775595</v>
       </c>
       <c r="F2">
-        <v>51.60254544065107</v>
+        <v>103.9230845325063</v>
       </c>
       <c r="G2">
-        <v>3.594859047301906</v>
+        <v>1.649930670002048</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.56988205597989</v>
+        <v>19.68008304161791</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>31.99538715734932</v>
+        <v>61.17334763532127</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.231670994341819</v>
+        <v>10.86854806406031</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.712696350048354</v>
+        <v>15.44146247645088</v>
       </c>
       <c r="E3">
-        <v>14.08648243838648</v>
+        <v>24.83103373603363</v>
       </c>
       <c r="F3">
-        <v>49.50204601729268</v>
+        <v>90.68146599931389</v>
       </c>
       <c r="G3">
-        <v>3.607827519654669</v>
+        <v>1.739787322594544</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.41091534122405</v>
+        <v>19.03134823444884</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>30.44997188032105</v>
+        <v>54.87332418879204</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.019168844761055</v>
+        <v>10.37777325722895</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.545499728442572</v>
+        <v>14.18290313561693</v>
       </c>
       <c r="E4">
-        <v>13.55594164246932</v>
+        <v>23.44649693621898</v>
       </c>
       <c r="F4">
-        <v>48.20784397318952</v>
+        <v>83.66747348991505</v>
       </c>
       <c r="G4">
-        <v>3.616113791610688</v>
+        <v>1.785093300152869</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.32002503466039</v>
+        <v>18.63011095774488</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>29.46983455025978</v>
+        <v>51.34984347207821</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.930764315880739</v>
+        <v>10.17200392844088</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.478378044973393</v>
+        <v>13.69650378506126</v>
       </c>
       <c r="E5">
-        <v>13.33334095594995</v>
+        <v>22.89222942545089</v>
       </c>
       <c r="F5">
-        <v>47.68020151474055</v>
+        <v>80.94762366262884</v>
       </c>
       <c r="G5">
-        <v>3.619572984196569</v>
+        <v>1.802252427650741</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.2847232762369</v>
+        <v>18.46803439257295</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>29.06305886772537</v>
+        <v>49.94777196459463</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.915978690211833</v>
+        <v>10.13748460394395</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.46729660369035</v>
+        <v>13.61689542517214</v>
       </c>
       <c r="E6">
-        <v>13.29599551921294</v>
+        <v>22.80047032422411</v>
       </c>
       <c r="F6">
-        <v>47.59259939249599</v>
+        <v>80.5020419295341</v>
       </c>
       <c r="G6">
-        <v>3.620152393142308</v>
+        <v>1.805042114126524</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.27896769174965</v>
+        <v>18.44123834538957</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>28.9950854851875</v>
+        <v>49.71613569996106</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.017983773905787</v>
+        <v>10.37502168555514</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.544590270910465</v>
+        <v>14.1762575528664</v>
       </c>
       <c r="E7">
-        <v>13.55296531998253</v>
+        <v>23.43899738742565</v>
       </c>
       <c r="F7">
-        <v>48.20072776995811</v>
+        <v>83.63034424529813</v>
       </c>
       <c r="G7">
-        <v>3.616160108135272</v>
+        <v>1.78532906430033</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.3195418492189</v>
+        <v>18.62791785601064</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>29.46437772572614</v>
+        <v>51.33083968004604</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.451971825018497</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.894289112148462</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E8">
-        <v>14.63041239056321</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F8">
-        <v>50.87973058789609</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G8">
-        <v>3.599264092986509</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.51370608116482</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>31.46928617786296</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.239219066721178</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.60454587072288</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E9">
-        <v>16.53402456961178</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F9">
-        <v>56.06298538161366</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G9">
-        <v>3.568646813689276</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.94551427612702</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>35.13506105074688</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.774561620633685</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.13588264717194</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E10">
-        <v>17.80151965644528</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F10">
-        <v>59.78810571157285</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G10">
-        <v>3.547611283709456</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.29074606183129</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>37.64702557419468</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.00807268459332</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.3786470747132</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E11">
-        <v>18.34925996050229</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F11">
-        <v>61.45801635186479</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G11">
-        <v>3.538341409436062</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.45317780383579</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>38.74754358735873</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.09501062114514</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.47065325504649</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E12">
-        <v>18.55250779540976</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F12">
-        <v>62.08637487379768</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G12">
-        <v>3.534872733183012</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.51540089589366</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>39.15803908702252</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.07635381368357</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.45083577663729</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E13">
-        <v>18.50892040269792</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F13">
-        <v>61.9512309020617</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G13">
-        <v>3.535617946664907</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.50196926222806</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>39.06991178903825</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.01525517817938</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.38621534376479</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E14">
-        <v>18.36606492907858</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F14">
-        <v>61.50979426892562</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G14">
-        <v>3.538055213481683</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.4582829783631</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>38.78144137721137</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.977635498377078</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.34664134993582</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E15">
-        <v>18.2780183861476</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F15">
-        <v>61.23886854237749</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G15">
-        <v>3.539553487360361</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.43161501578272</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>38.60392677523855</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.759095335508853</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.12003203502377</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E16">
-        <v>17.76514097356455</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F16">
-        <v>59.67843615606998</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G16">
-        <v>3.548222994943675</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.2802339407032</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>37.57423882388836</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.622426153955955</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.981228741174597</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E17">
-        <v>17.44309984048179</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F17">
-        <v>58.71449525269211</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G17">
-        <v>3.553617127467457</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.18870259652981</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>36.93161133884835</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.542876925554006</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.901496181491293</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E18">
-        <v>17.25515535281115</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F18">
-        <v>58.15776210779484</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G18">
-        <v>3.556747949167377</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.1365666165146</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.55802599161265</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.51578290480612</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.874520313005402</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E19">
-        <v>17.19105510021024</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F19">
-        <v>57.96888199614146</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G19">
-        <v>3.557812887204441</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.11900377472351</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.43086196293254</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.63707254700514</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.995994459455716</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E20">
-        <v>17.47766284106619</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F20">
-        <v>58.81734997619853</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G20">
-        <v>3.553039998155403</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.19839387449855</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.00043173027706</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.0332420401924</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.40519440938503</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E21">
-        <v>18.4081383201159</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F21">
-        <v>61.63956669046914</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G21">
-        <v>3.537338211072317</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.47109581198205</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>38.86634289399611</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.28347385383194</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.67304802433073</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E22">
-        <v>18.99195191723519</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F22">
-        <v>63.46057716023856</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G22">
-        <v>3.527318097349653</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.65345427360353</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>40.04935770363562</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.15072901362731</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.53007382104146</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E23">
-        <v>18.68258791871575</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F23">
-        <v>62.49094627580971</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G23">
-        <v>3.532644370319007</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.55576807109233</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>39.42134598372012</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.630453950012456</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.989318662757716</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E24">
-        <v>17.46204562428041</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F24">
-        <v>58.77085726516879</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G24">
-        <v>3.553300825817718</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.19401092746413</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>36.96933088197451</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.033546210045728</v>
+        <v>11.37275232425192</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.410361043430532</v>
+        <v>16.94145603325878</v>
       </c>
       <c r="E25">
-        <v>16.04188088321959</v>
+        <v>26.39264419462182</v>
       </c>
       <c r="F25">
-        <v>54.67278578349791</v>
+        <v>98.98809095495729</v>
       </c>
       <c r="G25">
-        <v>3.576667811113561</v>
+        <v>1.684099423663385</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.82355067188487</v>
+        <v>19.45929338635854</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>34.17405426644781</v>
+        <v>58.87847541603954</v>
       </c>
       <c r="N25">
         <v>0</v>
